--- a/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +452,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>510</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>930</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>140</v>
@@ -532,137 +532,249 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>540</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>360</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45537</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45544</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45551</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45558</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45565</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>340</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45572</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45579</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45607</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B42" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -677,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,89 +811,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1530</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>920</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>740</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>660</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1800</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>1360</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
@@ -476,39 +476,39 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -516,265 +516,241 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>510</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>930</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>700</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B42" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -789,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,121 +795,113 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45230.99999999999</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45260.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45322.99999999999</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1530</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45351.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1110</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>920</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>740</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>660</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>380</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>1140</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45626.99999999999</v>
-      </c>
-      <c r="B17" t="n">
         <v>1360</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,691 @@
       </c>
       <c r="B16" t="n">
         <v>1360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-515.7270505407473</v>
+      </c>
+      <c r="D2" t="n">
+        <v>338.1890730377376</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-458.9684968094855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>340.1596254784321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-341.9266694413762</v>
+      </c>
+      <c r="D4" t="n">
+        <v>486.380750045059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-325.3594239348914</v>
+      </c>
+      <c r="D5" t="n">
+        <v>523.3937030244689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-319.0085282766021</v>
+      </c>
+      <c r="D6" t="n">
+        <v>519.9147780455847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>107</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-308.6756899475969</v>
+      </c>
+      <c r="D7" t="n">
+        <v>524.0234205966356</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>116</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-307.328046497262</v>
+      </c>
+      <c r="D8" t="n">
+        <v>512.9433483481139</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-320.1939176717243</v>
+      </c>
+      <c r="D9" t="n">
+        <v>534.7431169356089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>132</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-263.688708895115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>563.8342197997064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-290.453891899103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>580.1838671960778</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>149</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-253.6020124581906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>592.7459756101374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>173</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-220.0611728808311</v>
+      </c>
+      <c r="D13" t="n">
+        <v>568.6275149486105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>182</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-247.5776838498852</v>
+      </c>
+      <c r="D14" t="n">
+        <v>583.98373820581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>190</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-225.2452090804507</v>
+      </c>
+      <c r="D15" t="n">
+        <v>632.1997047241188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>206</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-216.6634407210675</v>
+      </c>
+      <c r="D16" t="n">
+        <v>624.2845709900257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>239</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-187.3619534810607</v>
+      </c>
+      <c r="D17" t="n">
+        <v>668.7637738540077</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>248</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-170.9412398022154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>678.5083634003256</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>256</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-171.5541636646221</v>
+      </c>
+      <c r="D19" t="n">
+        <v>672.8928996725297</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>264</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-150.5383803138391</v>
+      </c>
+      <c r="D20" t="n">
+        <v>687.523539696974</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-162.0378978646252</v>
+      </c>
+      <c r="D21" t="n">
+        <v>670.4812346227976</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>281</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-152.2283526417381</v>
+      </c>
+      <c r="D22" t="n">
+        <v>712.0738902954122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>289</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-102.9817118848478</v>
+      </c>
+      <c r="D23" t="n">
+        <v>706.6359561641843</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>314</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-121.8780089849716</v>
+      </c>
+      <c r="D24" t="n">
+        <v>729.8613886163072</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>322</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-106.5760469480262</v>
+      </c>
+      <c r="D25" t="n">
+        <v>714.5477092312924</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>363</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-91.30016702122958</v>
+      </c>
+      <c r="D26" t="n">
+        <v>783.6282861203081</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>372</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-61.05240080710337</v>
+      </c>
+      <c r="D27" t="n">
+        <v>780.0277048996452</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>405</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-25.12621184026153</v>
+      </c>
+      <c r="D28" t="n">
+        <v>818.5765141803724</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>413</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.335039544663375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>850.9859233237447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>430</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18.88172944013869</v>
+      </c>
+      <c r="D30" t="n">
+        <v>861.2384469303162</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>438</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.446109467718404</v>
+      </c>
+      <c r="D31" t="n">
+        <v>865.9935344999835</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>463</v>
+      </c>
+      <c r="C32" t="n">
+        <v>66.3921387800163</v>
+      </c>
+      <c r="D32" t="n">
+        <v>864.2318804557813</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>471</v>
+      </c>
+      <c r="C33" t="n">
+        <v>73.56044761400678</v>
+      </c>
+      <c r="D33" t="n">
+        <v>896.9451335965547</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>479</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.18815236842609</v>
+      </c>
+      <c r="D34" t="n">
+        <v>872.2822414696055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>487</v>
+      </c>
+      <c r="C35" t="n">
+        <v>54.290270676591</v>
+      </c>
+      <c r="D35" t="n">
+        <v>876.4841749575692</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>496</v>
+      </c>
+      <c r="C36" t="n">
+        <v>83.65766662209815</v>
+      </c>
+      <c r="D36" t="n">
+        <v>892.810385971933</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>504</v>
+      </c>
+      <c r="C37" t="n">
+        <v>40.50501145187719</v>
+      </c>
+      <c r="D37" t="n">
+        <v>930.2027533174114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>512</v>
+      </c>
+      <c r="C38" t="n">
+        <v>114.6606003074603</v>
+      </c>
+      <c r="D38" t="n">
+        <v>950.0679035605334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>545</v>
+      </c>
+      <c r="C39" t="n">
+        <v>125.4483479592025</v>
+      </c>
+      <c r="D39" t="n">
+        <v>971.9017959553229</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>554</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146.7650464605377</v>
+      </c>
+      <c r="D40" t="n">
+        <v>992.9685625939452</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>562</v>
+      </c>
+      <c r="C41" t="n">
+        <v>135.6010240304861</v>
+      </c>
+      <c r="D41" t="n">
+        <v>977.5039815703088</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>570</v>
+      </c>
+      <c r="C42" t="n">
+        <v>152.8838911517851</v>
+      </c>
+      <c r="D42" t="n">
+        <v>983.3764802455919</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>578</v>
+      </c>
+      <c r="C43" t="n">
+        <v>167.8375251778789</v>
+      </c>
+      <c r="D43" t="n">
+        <v>993.4002369506148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>587</v>
+      </c>
+      <c r="C44" t="n">
+        <v>167.0084078536853</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1016.360181268529</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>595</v>
+      </c>
+      <c r="C45" t="n">
+        <v>182.8510627772892</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1000.296298611456</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>603</v>
+      </c>
+      <c r="C46" t="n">
+        <v>180.7947332774344</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1031.81027634864</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>611</v>
+      </c>
+      <c r="C47" t="n">
+        <v>193.4521947089331</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1035.919883254517</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ1TNW8_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-515.7270505407473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>338.1890730377376</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-458.9684968094855</v>
-      </c>
-      <c r="D3" t="n">
-        <v>340.1596254784321</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>82</v>
       </c>
-      <c r="C4" t="n">
-        <v>-341.9266694413762</v>
-      </c>
-      <c r="D4" t="n">
-        <v>486.380750045059</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>91</v>
       </c>
-      <c r="C5" t="n">
-        <v>-325.3594239348914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>523.3937030244689</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>99</v>
       </c>
-      <c r="C6" t="n">
-        <v>-319.0085282766021</v>
-      </c>
-      <c r="D6" t="n">
-        <v>519.9147780455847</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>107</v>
       </c>
-      <c r="C7" t="n">
-        <v>-308.6756899475969</v>
-      </c>
-      <c r="D7" t="n">
-        <v>524.0234205966356</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>116</v>
       </c>
-      <c r="C8" t="n">
-        <v>-307.328046497262</v>
-      </c>
-      <c r="D8" t="n">
-        <v>512.9433483481139</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>124</v>
       </c>
-      <c r="C9" t="n">
-        <v>-320.1939176717243</v>
-      </c>
-      <c r="D9" t="n">
-        <v>534.7431169356089</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>132</v>
       </c>
-      <c r="C10" t="n">
-        <v>-263.688708895115</v>
-      </c>
-      <c r="D10" t="n">
-        <v>563.8342197997064</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>140</v>
       </c>
-      <c r="C11" t="n">
-        <v>-290.453891899103</v>
-      </c>
-      <c r="D11" t="n">
-        <v>580.1838671960778</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>149</v>
       </c>
-      <c r="C12" t="n">
-        <v>-253.6020124581906</v>
-      </c>
-      <c r="D12" t="n">
-        <v>592.7459756101374</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>173</v>
       </c>
-      <c r="C13" t="n">
-        <v>-220.0611728808311</v>
-      </c>
-      <c r="D13" t="n">
-        <v>568.6275149486105</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>182</v>
       </c>
-      <c r="C14" t="n">
-        <v>-247.5776838498852</v>
-      </c>
-      <c r="D14" t="n">
-        <v>583.98373820581</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>190</v>
       </c>
-      <c r="C15" t="n">
-        <v>-225.2452090804507</v>
-      </c>
-      <c r="D15" t="n">
-        <v>632.1997047241188</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>206</v>
       </c>
-      <c r="C16" t="n">
-        <v>-216.6634407210675</v>
-      </c>
-      <c r="D16" t="n">
-        <v>624.2845709900257</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>239</v>
       </c>
-      <c r="C17" t="n">
-        <v>-187.3619534810607</v>
-      </c>
-      <c r="D17" t="n">
-        <v>668.7637738540077</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>248</v>
       </c>
-      <c r="C18" t="n">
-        <v>-170.9412398022154</v>
-      </c>
-      <c r="D18" t="n">
-        <v>678.5083634003256</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>256</v>
       </c>
-      <c r="C19" t="n">
-        <v>-171.5541636646221</v>
-      </c>
-      <c r="D19" t="n">
-        <v>672.8928996725297</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>264</v>
       </c>
-      <c r="C20" t="n">
-        <v>-150.5383803138391</v>
-      </c>
-      <c r="D20" t="n">
-        <v>687.523539696974</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>273</v>
       </c>
-      <c r="C21" t="n">
-        <v>-162.0378978646252</v>
-      </c>
-      <c r="D21" t="n">
-        <v>670.4812346227976</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>281</v>
       </c>
-      <c r="C22" t="n">
-        <v>-152.2283526417381</v>
-      </c>
-      <c r="D22" t="n">
-        <v>712.0738902954122</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>289</v>
       </c>
-      <c r="C23" t="n">
-        <v>-102.9817118848478</v>
-      </c>
-      <c r="D23" t="n">
-        <v>706.6359561641843</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>314</v>
       </c>
-      <c r="C24" t="n">
-        <v>-121.8780089849716</v>
-      </c>
-      <c r="D24" t="n">
-        <v>729.8613886163072</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>322</v>
       </c>
-      <c r="C25" t="n">
-        <v>-106.5760469480262</v>
-      </c>
-      <c r="D25" t="n">
-        <v>714.5477092312924</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>363</v>
       </c>
-      <c r="C26" t="n">
-        <v>-91.30016702122958</v>
-      </c>
-      <c r="D26" t="n">
-        <v>783.6282861203081</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>372</v>
       </c>
-      <c r="C27" t="n">
-        <v>-61.05240080710337</v>
-      </c>
-      <c r="D27" t="n">
-        <v>780.0277048996452</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>405</v>
       </c>
-      <c r="C28" t="n">
-        <v>-25.12621184026153</v>
-      </c>
-      <c r="D28" t="n">
-        <v>818.5765141803724</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>413</v>
       </c>
-      <c r="C29" t="n">
-        <v>-5.335039544663375</v>
-      </c>
-      <c r="D29" t="n">
-        <v>850.9859233237447</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>430</v>
       </c>
-      <c r="C30" t="n">
-        <v>18.88172944013869</v>
-      </c>
-      <c r="D30" t="n">
-        <v>861.2384469303162</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>438</v>
       </c>
-      <c r="C31" t="n">
-        <v>-7.446109467718404</v>
-      </c>
-      <c r="D31" t="n">
-        <v>865.9935344999835</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>463</v>
       </c>
-      <c r="C32" t="n">
-        <v>66.3921387800163</v>
-      </c>
-      <c r="D32" t="n">
-        <v>864.2318804557813</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>471</v>
       </c>
-      <c r="C33" t="n">
-        <v>73.56044761400678</v>
-      </c>
-      <c r="D33" t="n">
-        <v>896.9451335965547</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>479</v>
       </c>
-      <c r="C34" t="n">
-        <v>34.18815236842609</v>
-      </c>
-      <c r="D34" t="n">
-        <v>872.2822414696055</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>487</v>
       </c>
-      <c r="C35" t="n">
-        <v>54.290270676591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>876.4841749575692</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>496</v>
       </c>
-      <c r="C36" t="n">
-        <v>83.65766662209815</v>
-      </c>
-      <c r="D36" t="n">
-        <v>892.810385971933</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>504</v>
       </c>
-      <c r="C37" t="n">
-        <v>40.50501145187719</v>
-      </c>
-      <c r="D37" t="n">
-        <v>930.2027533174114</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>512</v>
       </c>
-      <c r="C38" t="n">
-        <v>114.6606003074603</v>
-      </c>
-      <c r="D38" t="n">
-        <v>950.0679035605334</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>545</v>
       </c>
-      <c r="C39" t="n">
-        <v>125.4483479592025</v>
-      </c>
-      <c r="D39" t="n">
-        <v>971.9017959553229</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>554</v>
       </c>
-      <c r="C40" t="n">
-        <v>146.7650464605377</v>
-      </c>
-      <c r="D40" t="n">
-        <v>992.9685625939452</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>562</v>
       </c>
-      <c r="C41" t="n">
-        <v>135.6010240304861</v>
-      </c>
-      <c r="D41" t="n">
-        <v>977.5039815703088</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>570</v>
       </c>
-      <c r="C42" t="n">
-        <v>152.8838911517851</v>
-      </c>
-      <c r="D42" t="n">
-        <v>983.3764802455919</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>578</v>
       </c>
-      <c r="C43" t="n">
-        <v>167.8375251778789</v>
-      </c>
-      <c r="D43" t="n">
-        <v>993.4002369506148</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>587</v>
       </c>
-      <c r="C44" t="n">
-        <v>167.0084078536853</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1016.360181268529</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>595</v>
       </c>
-      <c r="C45" t="n">
-        <v>182.8510627772892</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1000.296298611456</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1570,12 +1296,6 @@
       <c r="B46" t="n">
         <v>603</v>
       </c>
-      <c r="C46" t="n">
-        <v>180.7947332774344</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1031.81027634864</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1583,12 +1303,6 @@
       </c>
       <c r="B47" t="n">
         <v>611</v>
-      </c>
-      <c r="C47" t="n">
-        <v>193.4521947089331</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1035.919883254517</v>
       </c>
     </row>
   </sheetData>
